--- a/files/examples/output/results.xlsx
+++ b/files/examples/output/results.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12102" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12110" uniqueCount="49">
   <si>
     <t>#</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>&gt;p47_2_H08</t>
+  </si>
+  <si>
+    <t>Library ID: Library 1</t>
+  </si>
+  <si>
+    <t>Reference: Engineering ubiquitin to modulate the ubiquitin proteosome system (Ernst et al., 2013)</t>
   </si>
   <si>
     <t>C</t>
@@ -584,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CA23"/>
+  <dimension ref="A1:CA26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -5620,6 +5626,16 @@
         <v>42</v>
       </c>
     </row>
+    <row r="25" spans="1:79">
+      <c r="B25" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:79">
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A5"/>
@@ -5768,7 +5784,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CA23"/>
+  <dimension ref="A1:CA26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -10804,6 +10820,16 @@
         <v>42</v>
       </c>
     </row>
+    <row r="25" spans="1:79">
+      <c r="B25" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:79">
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:A5"/>
@@ -10952,7 +10978,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HW24"/>
+  <dimension ref="A1:HW27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -12377,7 +12403,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -12401,7 +12427,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>9</v>
@@ -12425,13 +12451,13 @@
         <v>15</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>7</v>
@@ -12443,7 +12469,7 @@
         <v>15</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>9</v>
@@ -12470,10 +12496,10 @@
         <v>15</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>15</v>
@@ -12482,25 +12508,25 @@
         <v>7</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU5" s="3" t="s">
         <v>9</v>
@@ -12530,19 +12556,19 @@
         <v>15</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>9</v>
@@ -12560,7 +12586,7 @@
         <v>15</v>
       </c>
       <c r="BN5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO5" s="3" t="s">
         <v>9</v>
@@ -12614,10 +12640,10 @@
         <v>9</v>
       </c>
       <c r="CF5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH5" s="3" t="s">
         <v>15</v>
@@ -12635,10 +12661,10 @@
         <v>7</v>
       </c>
       <c r="CM5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO5" s="3" t="s">
         <v>15</v>
@@ -12692,19 +12718,19 @@
         <v>7</v>
       </c>
       <c r="DF5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="DI5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK5" s="3" t="s">
         <v>7</v>
@@ -12719,7 +12745,7 @@
         <v>7</v>
       </c>
       <c r="DO5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP5" s="3" t="s">
         <v>15</v>
@@ -12728,7 +12754,7 @@
         <v>9</v>
       </c>
       <c r="DR5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS5" s="3" t="s">
         <v>15</v>
@@ -12746,7 +12772,7 @@
         <v>15</v>
       </c>
       <c r="DX5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY5" s="3" t="s">
         <v>7</v>
@@ -12761,7 +12787,7 @@
         <v>7</v>
       </c>
       <c r="EC5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED5" s="3" t="s">
         <v>7</v>
@@ -12776,7 +12802,7 @@
         <v>9</v>
       </c>
       <c r="EH5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI5" s="3" t="s">
         <v>7</v>
@@ -12788,7 +12814,7 @@
         <v>9</v>
       </c>
       <c r="EL5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM5" s="3" t="s">
         <v>15</v>
@@ -12800,7 +12826,7 @@
         <v>9</v>
       </c>
       <c r="EP5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ5" s="3" t="s">
         <v>15</v>
@@ -12809,7 +12835,7 @@
         <v>9</v>
       </c>
       <c r="ES5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET5" s="3" t="s">
         <v>7</v>
@@ -12845,7 +12871,7 @@
         <v>15</v>
       </c>
       <c r="FE5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF5" s="3" t="s">
         <v>9</v>
@@ -12857,7 +12883,7 @@
         <v>15</v>
       </c>
       <c r="FI5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ5" s="3" t="s">
         <v>7</v>
@@ -12875,7 +12901,7 @@
         <v>7</v>
       </c>
       <c r="FO5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP5" s="3" t="s">
         <v>7</v>
@@ -12887,7 +12913,7 @@
         <v>15</v>
       </c>
       <c r="FS5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT5" s="3" t="s">
         <v>7</v>
@@ -12896,7 +12922,7 @@
         <v>15</v>
       </c>
       <c r="FV5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW5" s="3" t="s">
         <v>15</v>
@@ -12917,7 +12943,7 @@
         <v>7</v>
       </c>
       <c r="GC5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD5" s="3" t="s">
         <v>15</v>
@@ -12947,7 +12973,7 @@
         <v>7</v>
       </c>
       <c r="GM5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN5" s="3" t="s">
         <v>7</v>
@@ -12956,13 +12982,13 @@
         <v>15</v>
       </c>
       <c r="GP5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="GR5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS5" s="3" t="s">
         <v>7</v>
@@ -12971,7 +12997,7 @@
         <v>7</v>
       </c>
       <c r="GU5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV5" s="3" t="s">
         <v>15</v>
@@ -12980,7 +13006,7 @@
         <v>7</v>
       </c>
       <c r="GX5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY5" s="3" t="s">
         <v>7</v>
@@ -13016,7 +13042,7 @@
         <v>15</v>
       </c>
       <c r="HJ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK5" s="3" t="s">
         <v>7</v>
@@ -13025,7 +13051,7 @@
         <v>7</v>
       </c>
       <c r="HM5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN5" s="3" t="s">
         <v>9</v>
@@ -13131,7 +13157,7 @@
         <v>9</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>20</v>
@@ -13826,7 +13852,7 @@
         <v>20</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA7" s="5" t="s">
         <v>20</v>
@@ -14441,7 +14467,7 @@
         <v>9</v>
       </c>
       <c r="HW7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:231">
@@ -14521,7 +14547,7 @@
         <v>20</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>7</v>
@@ -15007,7 +15033,7 @@
         <v>20</v>
       </c>
       <c r="GF8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GG8" s="5" t="s">
         <v>20</v>
@@ -15058,7 +15084,7 @@
         <v>20</v>
       </c>
       <c r="GW8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GX8" s="5" t="s">
         <v>20</v>
@@ -15118,7 +15144,7 @@
         <v>20</v>
       </c>
       <c r="HQ8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HR8" s="5" t="s">
         <v>15</v>
@@ -15195,7 +15221,7 @@
         <v>7</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>20</v>
@@ -15216,7 +15242,7 @@
         <v>9</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA9" s="5" t="s">
         <v>20</v>
@@ -15225,7 +15251,7 @@
         <v>7</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD9" s="5" t="s">
         <v>20</v>
@@ -15831,7 +15857,7 @@
         <v>7</v>
       </c>
       <c r="HW9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:231">
@@ -15890,7 +15916,7 @@
         <v>7</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>20</v>
@@ -15917,10 +15943,10 @@
         <v>7</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>20</v>
@@ -16564,7 +16590,7 @@
         <v>20</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>20</v>
@@ -17200,7 +17226,7 @@
         <v>20</v>
       </c>
       <c r="HP11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HQ11" s="5" t="s">
         <v>20</v>
@@ -17313,10 +17339,10 @@
         <v>20</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF12" s="5" t="s">
         <v>20</v>
@@ -18005,7 +18031,7 @@
         <v>20</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD13" s="5" t="s">
         <v>20</v>
@@ -18014,7 +18040,7 @@
         <v>20</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG13" s="5" t="s">
         <v>20</v>
@@ -18041,7 +18067,7 @@
         <v>20</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP13" s="5" t="s">
         <v>20</v>
@@ -18691,7 +18717,7 @@
         <v>20</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>15</v>
@@ -18700,7 +18726,7 @@
         <v>7</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD14" s="5" t="s">
         <v>20</v>
@@ -18712,7 +18738,7 @@
         <v>7</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH14" s="5" t="s">
         <v>20</v>
@@ -19344,7 +19370,7 @@
         <v>20</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>20</v>
@@ -19386,7 +19412,7 @@
         <v>20</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>9</v>
@@ -19395,7 +19421,7 @@
         <v>20</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD15" s="5" t="s">
         <v>20</v>
@@ -19875,7 +19901,7 @@
         <v>20</v>
       </c>
       <c r="GG15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GH15" s="5" t="s">
         <v>20</v>
@@ -19905,7 +19931,7 @@
         <v>20</v>
       </c>
       <c r="GQ15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GR15" s="5" t="s">
         <v>20</v>
@@ -19965,7 +19991,7 @@
         <v>20</v>
       </c>
       <c r="HK15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HL15" s="5" t="s">
         <v>20</v>
@@ -19992,7 +20018,7 @@
         <v>7</v>
       </c>
       <c r="HT15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HU15" s="5" t="s">
         <v>20</v>
@@ -20081,7 +20107,7 @@
         <v>20</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA16" s="5" t="s">
         <v>20</v>
@@ -20102,7 +20128,7 @@
         <v>20</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH16" s="5" t="s">
         <v>20</v>
@@ -20731,7 +20757,7 @@
         <v>20</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>20</v>
@@ -20782,10 +20808,10 @@
         <v>7</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD17" s="5" t="s">
         <v>20</v>
@@ -21331,10 +21357,10 @@
         <v>20</v>
       </c>
       <c r="HC17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HD17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HE17" s="5" t="s">
         <v>20</v>
@@ -21358,7 +21384,7 @@
         <v>20</v>
       </c>
       <c r="HL17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HM17" s="5" t="s">
         <v>20</v>
@@ -21382,7 +21408,7 @@
         <v>15</v>
       </c>
       <c r="HT17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HU17" s="5" t="s">
         <v>20</v>
@@ -22166,7 +22192,7 @@
         <v>20</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA19" s="5" t="s">
         <v>7</v>
@@ -22187,7 +22213,7 @@
         <v>20</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH19" s="5" t="s">
         <v>20</v>
@@ -22652,7 +22678,7 @@
         <v>20</v>
       </c>
       <c r="GF19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GG19" s="5" t="s">
         <v>20</v>
@@ -22703,7 +22729,7 @@
         <v>20</v>
       </c>
       <c r="GW19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GX19" s="5" t="s">
         <v>20</v>
@@ -22763,7 +22789,7 @@
         <v>20</v>
       </c>
       <c r="HQ19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HR19" s="5" t="s">
         <v>15</v>
@@ -22816,7 +22842,7 @@
         <v>20</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>20</v>
@@ -22873,7 +22899,7 @@
         <v>7</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE20" s="5" t="s">
         <v>15</v>
@@ -23449,13 +23475,13 @@
         <v>20</v>
       </c>
       <c r="HN20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HO20" s="5" t="s">
         <v>20</v>
       </c>
       <c r="HP20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HQ20" s="5" t="s">
         <v>7</v>
@@ -23556,7 +23582,7 @@
         <v>20</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA21" s="5" t="s">
         <v>20</v>
@@ -23565,7 +23591,7 @@
         <v>20</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD21" s="5" t="s">
         <v>20</v>
@@ -23577,7 +23603,7 @@
         <v>20</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH21" s="5" t="s">
         <v>20</v>
@@ -23601,7 +23627,7 @@
         <v>20</v>
       </c>
       <c r="AO21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP21" s="5" t="s">
         <v>20</v>
@@ -24590,7 +24616,7 @@
         <v>20</v>
       </c>
       <c r="EI22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EJ22" s="5" t="s">
         <v>7</v>
@@ -24608,7 +24634,7 @@
         <v>20</v>
       </c>
       <c r="EO22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EP22" s="5" t="s">
         <v>20</v>
@@ -24734,7 +24760,7 @@
         <v>20</v>
       </c>
       <c r="GE22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GF22" s="5" t="s">
         <v>20</v>
@@ -24809,7 +24835,7 @@
         <v>15</v>
       </c>
       <c r="HD22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HE22" s="5" t="s">
         <v>20</v>
@@ -24854,7 +24880,7 @@
         <v>20</v>
       </c>
       <c r="HS22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HT22" s="5" t="s">
         <v>7</v>
@@ -24958,10 +24984,10 @@
         <v>20</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF23" s="5" t="s">
         <v>20</v>
@@ -25668,7 +25694,7 @@
         <v>20</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>7</v>
@@ -26257,6 +26283,16 @@
       </c>
       <c r="HW24" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:231">
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:231">
+      <c r="B27" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -26407,7 +26443,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HW24"/>
+  <dimension ref="A1:HW27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -27832,7 +27868,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>15</v>
@@ -27856,7 +27892,7 @@
         <v>7</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5" s="3" t="s">
         <v>9</v>
@@ -27880,13 +27916,13 @@
         <v>15</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X5" s="3" t="s">
         <v>7</v>
@@ -27898,7 +27934,7 @@
         <v>15</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="3" t="s">
         <v>9</v>
@@ -27925,10 +27961,10 @@
         <v>15</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL5" s="3" t="s">
         <v>15</v>
@@ -27937,25 +27973,25 @@
         <v>7</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="AT5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU5" s="3" t="s">
         <v>9</v>
@@ -27985,19 +28021,19 @@
         <v>15</v>
       </c>
       <c r="BD5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="BH5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI5" s="3" t="s">
         <v>9</v>
@@ -28015,7 +28051,7 @@
         <v>15</v>
       </c>
       <c r="BN5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO5" s="3" t="s">
         <v>9</v>
@@ -28069,10 +28105,10 @@
         <v>9</v>
       </c>
       <c r="CF5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH5" s="3" t="s">
         <v>15</v>
@@ -28090,10 +28126,10 @@
         <v>7</v>
       </c>
       <c r="CM5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO5" s="3" t="s">
         <v>15</v>
@@ -28147,19 +28183,19 @@
         <v>7</v>
       </c>
       <c r="DF5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="DI5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK5" s="3" t="s">
         <v>7</v>
@@ -28174,7 +28210,7 @@
         <v>7</v>
       </c>
       <c r="DO5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP5" s="3" t="s">
         <v>15</v>
@@ -28183,7 +28219,7 @@
         <v>9</v>
       </c>
       <c r="DR5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS5" s="3" t="s">
         <v>15</v>
@@ -28201,7 +28237,7 @@
         <v>15</v>
       </c>
       <c r="DX5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY5" s="3" t="s">
         <v>7</v>
@@ -28216,7 +28252,7 @@
         <v>7</v>
       </c>
       <c r="EC5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED5" s="3" t="s">
         <v>7</v>
@@ -28231,7 +28267,7 @@
         <v>9</v>
       </c>
       <c r="EH5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI5" s="3" t="s">
         <v>7</v>
@@ -28243,7 +28279,7 @@
         <v>9</v>
       </c>
       <c r="EL5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM5" s="3" t="s">
         <v>15</v>
@@ -28255,7 +28291,7 @@
         <v>9</v>
       </c>
       <c r="EP5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ5" s="3" t="s">
         <v>15</v>
@@ -28264,7 +28300,7 @@
         <v>9</v>
       </c>
       <c r="ES5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET5" s="3" t="s">
         <v>7</v>
@@ -28300,7 +28336,7 @@
         <v>15</v>
       </c>
       <c r="FE5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF5" s="3" t="s">
         <v>9</v>
@@ -28312,7 +28348,7 @@
         <v>15</v>
       </c>
       <c r="FI5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ5" s="3" t="s">
         <v>7</v>
@@ -28330,7 +28366,7 @@
         <v>7</v>
       </c>
       <c r="FO5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP5" s="3" t="s">
         <v>7</v>
@@ -28342,7 +28378,7 @@
         <v>15</v>
       </c>
       <c r="FS5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT5" s="3" t="s">
         <v>7</v>
@@ -28351,7 +28387,7 @@
         <v>15</v>
       </c>
       <c r="FV5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW5" s="3" t="s">
         <v>15</v>
@@ -28372,7 +28408,7 @@
         <v>7</v>
       </c>
       <c r="GC5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD5" s="3" t="s">
         <v>15</v>
@@ -28402,7 +28438,7 @@
         <v>7</v>
       </c>
       <c r="GM5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN5" s="3" t="s">
         <v>7</v>
@@ -28411,13 +28447,13 @@
         <v>15</v>
       </c>
       <c r="GP5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="GR5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS5" s="3" t="s">
         <v>7</v>
@@ -28426,7 +28462,7 @@
         <v>7</v>
       </c>
       <c r="GU5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV5" s="3" t="s">
         <v>15</v>
@@ -28435,7 +28471,7 @@
         <v>7</v>
       </c>
       <c r="GX5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY5" s="3" t="s">
         <v>7</v>
@@ -28471,7 +28507,7 @@
         <v>15</v>
       </c>
       <c r="HJ5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK5" s="3" t="s">
         <v>7</v>
@@ -28480,7 +28516,7 @@
         <v>7</v>
       </c>
       <c r="HM5" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN5" s="3" t="s">
         <v>9</v>
@@ -28523,7 +28559,7 @@
         <v>9</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>15</v>
@@ -28547,7 +28583,7 @@
         <v>7</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N6" s="5" t="s">
         <v>9</v>
@@ -28571,13 +28607,13 @@
         <v>15</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X6" s="5" t="s">
         <v>15</v>
@@ -28586,10 +28622,10 @@
         <v>9</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB6" s="5" t="s">
         <v>9</v>
@@ -28619,7 +28655,7 @@
         <v>7</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL6" s="5" t="s">
         <v>15</v>
@@ -28628,25 +28664,25 @@
         <v>7</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU6" s="5" t="s">
         <v>9</v>
@@ -28676,19 +28712,19 @@
         <v>15</v>
       </c>
       <c r="BD6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI6" s="5" t="s">
         <v>9</v>
@@ -28706,7 +28742,7 @@
         <v>15</v>
       </c>
       <c r="BN6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO6" s="5" t="s">
         <v>9</v>
@@ -28760,10 +28796,10 @@
         <v>9</v>
       </c>
       <c r="CF6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH6" s="5" t="s">
         <v>15</v>
@@ -28781,10 +28817,10 @@
         <v>7</v>
       </c>
       <c r="CM6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO6" s="5" t="s">
         <v>15</v>
@@ -28838,19 +28874,19 @@
         <v>7</v>
       </c>
       <c r="DF6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK6" s="5" t="s">
         <v>7</v>
@@ -28865,7 +28901,7 @@
         <v>7</v>
       </c>
       <c r="DO6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP6" s="5" t="s">
         <v>15</v>
@@ -28874,7 +28910,7 @@
         <v>9</v>
       </c>
       <c r="DR6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS6" s="5" t="s">
         <v>15</v>
@@ -28892,7 +28928,7 @@
         <v>15</v>
       </c>
       <c r="DX6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY6" s="5" t="s">
         <v>7</v>
@@ -28907,7 +28943,7 @@
         <v>7</v>
       </c>
       <c r="EC6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED6" s="5" t="s">
         <v>7</v>
@@ -28934,7 +28970,7 @@
         <v>15</v>
       </c>
       <c r="EL6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM6" s="5" t="s">
         <v>15</v>
@@ -28955,7 +28991,7 @@
         <v>9</v>
       </c>
       <c r="ES6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET6" s="5" t="s">
         <v>7</v>
@@ -28991,7 +29027,7 @@
         <v>15</v>
       </c>
       <c r="FE6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF6" s="5" t="s">
         <v>9</v>
@@ -29003,7 +29039,7 @@
         <v>15</v>
       </c>
       <c r="FI6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ6" s="5" t="s">
         <v>7</v>
@@ -29021,7 +29057,7 @@
         <v>7</v>
       </c>
       <c r="FO6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP6" s="5" t="s">
         <v>7</v>
@@ -29033,7 +29069,7 @@
         <v>15</v>
       </c>
       <c r="FS6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT6" s="5" t="s">
         <v>7</v>
@@ -29042,7 +29078,7 @@
         <v>15</v>
       </c>
       <c r="FV6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW6" s="5" t="s">
         <v>15</v>
@@ -29063,7 +29099,7 @@
         <v>7</v>
       </c>
       <c r="GC6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD6" s="5" t="s">
         <v>15</v>
@@ -29093,7 +29129,7 @@
         <v>7</v>
       </c>
       <c r="GM6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN6" s="5" t="s">
         <v>7</v>
@@ -29102,13 +29138,13 @@
         <v>15</v>
       </c>
       <c r="GP6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS6" s="5" t="s">
         <v>7</v>
@@ -29117,7 +29153,7 @@
         <v>7</v>
       </c>
       <c r="GU6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV6" s="5" t="s">
         <v>15</v>
@@ -29126,7 +29162,7 @@
         <v>7</v>
       </c>
       <c r="GX6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY6" s="5" t="s">
         <v>7</v>
@@ -29162,7 +29198,7 @@
         <v>15</v>
       </c>
       <c r="HJ6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK6" s="5" t="s">
         <v>7</v>
@@ -29171,7 +29207,7 @@
         <v>7</v>
       </c>
       <c r="HM6" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN6" s="5" t="s">
         <v>9</v>
@@ -29218,7 +29254,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>15</v>
@@ -29242,7 +29278,7 @@
         <v>7</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N7" s="5" t="s">
         <v>9</v>
@@ -29266,13 +29302,13 @@
         <v>15</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X7" s="5" t="s">
         <v>9</v>
@@ -29281,10 +29317,10 @@
         <v>7</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB7" s="5" t="s">
         <v>9</v>
@@ -29314,7 +29350,7 @@
         <v>7</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL7" s="5" t="s">
         <v>15</v>
@@ -29323,25 +29359,25 @@
         <v>7</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU7" s="5" t="s">
         <v>9</v>
@@ -29371,19 +29407,19 @@
         <v>15</v>
       </c>
       <c r="BD7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI7" s="5" t="s">
         <v>9</v>
@@ -29401,7 +29437,7 @@
         <v>15</v>
       </c>
       <c r="BN7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO7" s="5" t="s">
         <v>9</v>
@@ -29455,10 +29491,10 @@
         <v>9</v>
       </c>
       <c r="CF7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH7" s="5" t="s">
         <v>15</v>
@@ -29476,10 +29512,10 @@
         <v>7</v>
       </c>
       <c r="CM7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO7" s="5" t="s">
         <v>15</v>
@@ -29533,19 +29569,19 @@
         <v>7</v>
       </c>
       <c r="DF7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK7" s="5" t="s">
         <v>7</v>
@@ -29560,7 +29596,7 @@
         <v>7</v>
       </c>
       <c r="DO7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP7" s="5" t="s">
         <v>15</v>
@@ -29569,7 +29605,7 @@
         <v>9</v>
       </c>
       <c r="DR7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS7" s="5" t="s">
         <v>15</v>
@@ -29587,7 +29623,7 @@
         <v>15</v>
       </c>
       <c r="DX7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY7" s="5" t="s">
         <v>7</v>
@@ -29602,7 +29638,7 @@
         <v>7</v>
       </c>
       <c r="EC7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED7" s="5" t="s">
         <v>7</v>
@@ -29617,7 +29653,7 @@
         <v>9</v>
       </c>
       <c r="EH7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI7" s="5" t="s">
         <v>7</v>
@@ -29629,7 +29665,7 @@
         <v>9</v>
       </c>
       <c r="EL7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM7" s="5" t="s">
         <v>15</v>
@@ -29641,7 +29677,7 @@
         <v>9</v>
       </c>
       <c r="EP7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ7" s="5" t="s">
         <v>15</v>
@@ -29650,7 +29686,7 @@
         <v>9</v>
       </c>
       <c r="ES7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET7" s="5" t="s">
         <v>7</v>
@@ -29686,7 +29722,7 @@
         <v>15</v>
       </c>
       <c r="FE7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF7" s="5" t="s">
         <v>9</v>
@@ -29698,7 +29734,7 @@
         <v>15</v>
       </c>
       <c r="FI7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ7" s="5" t="s">
         <v>7</v>
@@ -29716,7 +29752,7 @@
         <v>7</v>
       </c>
       <c r="FO7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP7" s="5" t="s">
         <v>7</v>
@@ -29728,7 +29764,7 @@
         <v>15</v>
       </c>
       <c r="FS7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT7" s="5" t="s">
         <v>7</v>
@@ -29737,7 +29773,7 @@
         <v>15</v>
       </c>
       <c r="FV7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW7" s="5" t="s">
         <v>15</v>
@@ -29758,7 +29794,7 @@
         <v>7</v>
       </c>
       <c r="GC7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD7" s="5" t="s">
         <v>15</v>
@@ -29788,7 +29824,7 @@
         <v>7</v>
       </c>
       <c r="GM7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN7" s="5" t="s">
         <v>7</v>
@@ -29797,13 +29833,13 @@
         <v>15</v>
       </c>
       <c r="GP7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS7" s="5" t="s">
         <v>7</v>
@@ -29812,7 +29848,7 @@
         <v>7</v>
       </c>
       <c r="GU7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV7" s="5" t="s">
         <v>15</v>
@@ -29821,7 +29857,7 @@
         <v>7</v>
       </c>
       <c r="GX7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY7" s="5" t="s">
         <v>7</v>
@@ -29857,7 +29893,7 @@
         <v>15</v>
       </c>
       <c r="HJ7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK7" s="5" t="s">
         <v>7</v>
@@ -29866,7 +29902,7 @@
         <v>7</v>
       </c>
       <c r="HM7" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN7" s="5" t="s">
         <v>9</v>
@@ -29896,7 +29932,7 @@
         <v>9</v>
       </c>
       <c r="HW7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:231">
@@ -29913,7 +29949,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>15</v>
@@ -29937,7 +29973,7 @@
         <v>7</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N8" s="5" t="s">
         <v>9</v>
@@ -29961,13 +29997,13 @@
         <v>15</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>7</v>
@@ -29976,7 +30012,7 @@
         <v>7</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>7</v>
@@ -30009,7 +30045,7 @@
         <v>7</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL8" s="5" t="s">
         <v>15</v>
@@ -30018,25 +30054,25 @@
         <v>7</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AP8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU8" s="5" t="s">
         <v>9</v>
@@ -30066,19 +30102,19 @@
         <v>15</v>
       </c>
       <c r="BD8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI8" s="5" t="s">
         <v>9</v>
@@ -30096,7 +30132,7 @@
         <v>15</v>
       </c>
       <c r="BN8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO8" s="5" t="s">
         <v>9</v>
@@ -30150,10 +30186,10 @@
         <v>9</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH8" s="5" t="s">
         <v>15</v>
@@ -30171,10 +30207,10 @@
         <v>7</v>
       </c>
       <c r="CM8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO8" s="5" t="s">
         <v>15</v>
@@ -30228,19 +30264,19 @@
         <v>7</v>
       </c>
       <c r="DF8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK8" s="5" t="s">
         <v>7</v>
@@ -30255,7 +30291,7 @@
         <v>7</v>
       </c>
       <c r="DO8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP8" s="5" t="s">
         <v>15</v>
@@ -30264,7 +30300,7 @@
         <v>9</v>
       </c>
       <c r="DR8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS8" s="5" t="s">
         <v>15</v>
@@ -30282,7 +30318,7 @@
         <v>15</v>
       </c>
       <c r="DX8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY8" s="5" t="s">
         <v>7</v>
@@ -30297,7 +30333,7 @@
         <v>7</v>
       </c>
       <c r="EC8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED8" s="5" t="s">
         <v>7</v>
@@ -30312,7 +30348,7 @@
         <v>9</v>
       </c>
       <c r="EH8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI8" s="5" t="s">
         <v>7</v>
@@ -30324,7 +30360,7 @@
         <v>9</v>
       </c>
       <c r="EL8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM8" s="5" t="s">
         <v>15</v>
@@ -30336,7 +30372,7 @@
         <v>9</v>
       </c>
       <c r="EP8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ8" s="5" t="s">
         <v>15</v>
@@ -30345,7 +30381,7 @@
         <v>9</v>
       </c>
       <c r="ES8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET8" s="5" t="s">
         <v>7</v>
@@ -30381,7 +30417,7 @@
         <v>15</v>
       </c>
       <c r="FE8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF8" s="5" t="s">
         <v>9</v>
@@ -30393,7 +30429,7 @@
         <v>15</v>
       </c>
       <c r="FI8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ8" s="5" t="s">
         <v>7</v>
@@ -30411,7 +30447,7 @@
         <v>7</v>
       </c>
       <c r="FO8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP8" s="5" t="s">
         <v>7</v>
@@ -30423,7 +30459,7 @@
         <v>15</v>
       </c>
       <c r="FS8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT8" s="5" t="s">
         <v>7</v>
@@ -30432,7 +30468,7 @@
         <v>15</v>
       </c>
       <c r="FV8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW8" s="5" t="s">
         <v>15</v>
@@ -30453,7 +30489,7 @@
         <v>7</v>
       </c>
       <c r="GC8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD8" s="5" t="s">
         <v>15</v>
@@ -30462,7 +30498,7 @@
         <v>15</v>
       </c>
       <c r="GF8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GG8" s="5" t="s">
         <v>15</v>
@@ -30483,7 +30519,7 @@
         <v>7</v>
       </c>
       <c r="GM8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN8" s="5" t="s">
         <v>7</v>
@@ -30492,13 +30528,13 @@
         <v>15</v>
       </c>
       <c r="GP8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS8" s="5" t="s">
         <v>7</v>
@@ -30507,16 +30543,16 @@
         <v>7</v>
       </c>
       <c r="GU8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="GW8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GX8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY8" s="5" t="s">
         <v>7</v>
@@ -30552,7 +30588,7 @@
         <v>15</v>
       </c>
       <c r="HJ8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK8" s="5" t="s">
         <v>9</v>
@@ -30573,7 +30609,7 @@
         <v>9</v>
       </c>
       <c r="HQ8" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HR8" s="5" t="s">
         <v>15</v>
@@ -30608,7 +30644,7 @@
         <v>9</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>15</v>
@@ -30650,19 +30686,19 @@
         <v>7</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X9" s="5" t="s">
         <v>9</v>
@@ -30671,16 +30707,16 @@
         <v>9</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AC9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD9" s="5" t="s">
         <v>9</v>
@@ -30704,7 +30740,7 @@
         <v>7</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL9" s="5" t="s">
         <v>15</v>
@@ -30713,25 +30749,25 @@
         <v>7</v>
       </c>
       <c r="AN9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU9" s="5" t="s">
         <v>9</v>
@@ -30761,19 +30797,19 @@
         <v>15</v>
       </c>
       <c r="BD9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI9" s="5" t="s">
         <v>9</v>
@@ -30791,7 +30827,7 @@
         <v>15</v>
       </c>
       <c r="BN9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO9" s="5" t="s">
         <v>9</v>
@@ -30845,10 +30881,10 @@
         <v>9</v>
       </c>
       <c r="CF9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH9" s="5" t="s">
         <v>15</v>
@@ -30866,10 +30902,10 @@
         <v>7</v>
       </c>
       <c r="CM9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO9" s="5" t="s">
         <v>15</v>
@@ -30923,19 +30959,19 @@
         <v>7</v>
       </c>
       <c r="DF9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK9" s="5" t="s">
         <v>7</v>
@@ -30950,7 +30986,7 @@
         <v>7</v>
       </c>
       <c r="DO9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP9" s="5" t="s">
         <v>15</v>
@@ -30959,7 +30995,7 @@
         <v>9</v>
       </c>
       <c r="DR9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS9" s="5" t="s">
         <v>15</v>
@@ -30977,7 +31013,7 @@
         <v>15</v>
       </c>
       <c r="DX9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY9" s="5" t="s">
         <v>7</v>
@@ -30992,7 +31028,7 @@
         <v>7</v>
       </c>
       <c r="EC9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED9" s="5" t="s">
         <v>7</v>
@@ -31007,7 +31043,7 @@
         <v>9</v>
       </c>
       <c r="EH9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI9" s="5" t="s">
         <v>7</v>
@@ -31019,7 +31055,7 @@
         <v>9</v>
       </c>
       <c r="EL9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM9" s="5" t="s">
         <v>15</v>
@@ -31031,7 +31067,7 @@
         <v>9</v>
       </c>
       <c r="EP9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ9" s="5" t="s">
         <v>15</v>
@@ -31040,7 +31076,7 @@
         <v>9</v>
       </c>
       <c r="ES9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET9" s="5" t="s">
         <v>7</v>
@@ -31076,7 +31112,7 @@
         <v>15</v>
       </c>
       <c r="FE9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF9" s="5" t="s">
         <v>9</v>
@@ -31088,7 +31124,7 @@
         <v>15</v>
       </c>
       <c r="FI9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ9" s="5" t="s">
         <v>7</v>
@@ -31106,7 +31142,7 @@
         <v>7</v>
       </c>
       <c r="FO9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP9" s="5" t="s">
         <v>7</v>
@@ -31118,7 +31154,7 @@
         <v>15</v>
       </c>
       <c r="FS9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT9" s="5" t="s">
         <v>7</v>
@@ -31127,7 +31163,7 @@
         <v>15</v>
       </c>
       <c r="FV9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW9" s="5" t="s">
         <v>15</v>
@@ -31148,7 +31184,7 @@
         <v>7</v>
       </c>
       <c r="GC9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD9" s="5" t="s">
         <v>15</v>
@@ -31178,7 +31214,7 @@
         <v>7</v>
       </c>
       <c r="GM9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN9" s="5" t="s">
         <v>7</v>
@@ -31187,13 +31223,13 @@
         <v>15</v>
       </c>
       <c r="GP9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS9" s="5" t="s">
         <v>7</v>
@@ -31202,7 +31238,7 @@
         <v>7</v>
       </c>
       <c r="GU9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV9" s="5" t="s">
         <v>15</v>
@@ -31211,7 +31247,7 @@
         <v>7</v>
       </c>
       <c r="GX9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY9" s="5" t="s">
         <v>7</v>
@@ -31247,7 +31283,7 @@
         <v>15</v>
       </c>
       <c r="HJ9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK9" s="5" t="s">
         <v>7</v>
@@ -31256,7 +31292,7 @@
         <v>7</v>
       </c>
       <c r="HM9" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN9" s="5" t="s">
         <v>9</v>
@@ -31286,7 +31322,7 @@
         <v>7</v>
       </c>
       <c r="HW9" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:231">
@@ -31303,7 +31339,7 @@
         <v>9</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>15</v>
@@ -31345,19 +31381,19 @@
         <v>7</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X10" s="5" t="s">
         <v>9</v>
@@ -31372,10 +31408,10 @@
         <v>7</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD10" s="5" t="s">
         <v>9</v>
@@ -31396,10 +31432,10 @@
         <v>15</v>
       </c>
       <c r="AJ10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL10" s="5" t="s">
         <v>15</v>
@@ -31408,7 +31444,7 @@
         <v>7</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO10" s="5" t="s">
         <v>15</v>
@@ -31417,16 +31453,16 @@
         <v>9</v>
       </c>
       <c r="AQ10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU10" s="5" t="s">
         <v>9</v>
@@ -31456,19 +31492,19 @@
         <v>15</v>
       </c>
       <c r="BD10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI10" s="5" t="s">
         <v>9</v>
@@ -31486,7 +31522,7 @@
         <v>15</v>
       </c>
       <c r="BN10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO10" s="5" t="s">
         <v>9</v>
@@ -31540,10 +31576,10 @@
         <v>9</v>
       </c>
       <c r="CF10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH10" s="5" t="s">
         <v>15</v>
@@ -31561,10 +31597,10 @@
         <v>7</v>
       </c>
       <c r="CM10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO10" s="5" t="s">
         <v>15</v>
@@ -31618,19 +31654,19 @@
         <v>7</v>
       </c>
       <c r="DF10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK10" s="5" t="s">
         <v>7</v>
@@ -31645,7 +31681,7 @@
         <v>7</v>
       </c>
       <c r="DO10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP10" s="5" t="s">
         <v>15</v>
@@ -31654,7 +31690,7 @@
         <v>9</v>
       </c>
       <c r="DR10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS10" s="5" t="s">
         <v>15</v>
@@ -31672,7 +31708,7 @@
         <v>15</v>
       </c>
       <c r="DX10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY10" s="5" t="s">
         <v>7</v>
@@ -31687,7 +31723,7 @@
         <v>7</v>
       </c>
       <c r="EC10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED10" s="5" t="s">
         <v>7</v>
@@ -31702,7 +31738,7 @@
         <v>9</v>
       </c>
       <c r="EH10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI10" s="5" t="s">
         <v>7</v>
@@ -31714,7 +31750,7 @@
         <v>9</v>
       </c>
       <c r="EL10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM10" s="5" t="s">
         <v>15</v>
@@ -31726,7 +31762,7 @@
         <v>9</v>
       </c>
       <c r="EP10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ10" s="5" t="s">
         <v>15</v>
@@ -31735,7 +31771,7 @@
         <v>9</v>
       </c>
       <c r="ES10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET10" s="5" t="s">
         <v>7</v>
@@ -31771,7 +31807,7 @@
         <v>15</v>
       </c>
       <c r="FE10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF10" s="5" t="s">
         <v>9</v>
@@ -31783,7 +31819,7 @@
         <v>15</v>
       </c>
       <c r="FI10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ10" s="5" t="s">
         <v>7</v>
@@ -31801,7 +31837,7 @@
         <v>7</v>
       </c>
       <c r="FO10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP10" s="5" t="s">
         <v>7</v>
@@ -31813,7 +31849,7 @@
         <v>15</v>
       </c>
       <c r="FS10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT10" s="5" t="s">
         <v>7</v>
@@ -31822,7 +31858,7 @@
         <v>15</v>
       </c>
       <c r="FV10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW10" s="5" t="s">
         <v>15</v>
@@ -31843,7 +31879,7 @@
         <v>7</v>
       </c>
       <c r="GC10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD10" s="5" t="s">
         <v>15</v>
@@ -31873,7 +31909,7 @@
         <v>7</v>
       </c>
       <c r="GM10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN10" s="5" t="s">
         <v>7</v>
@@ -31882,13 +31918,13 @@
         <v>15</v>
       </c>
       <c r="GP10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS10" s="5" t="s">
         <v>7</v>
@@ -31897,7 +31933,7 @@
         <v>7</v>
       </c>
       <c r="GU10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV10" s="5" t="s">
         <v>15</v>
@@ -31906,7 +31942,7 @@
         <v>7</v>
       </c>
       <c r="GX10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY10" s="5" t="s">
         <v>7</v>
@@ -31942,7 +31978,7 @@
         <v>15</v>
       </c>
       <c r="HJ10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK10" s="5" t="s">
         <v>7</v>
@@ -31951,7 +31987,7 @@
         <v>7</v>
       </c>
       <c r="HM10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN10" s="5" t="s">
         <v>9</v>
@@ -31998,7 +32034,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>15</v>
@@ -32019,10 +32055,10 @@
         <v>7</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>9</v>
@@ -32046,13 +32082,13 @@
         <v>15</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X11" s="5" t="s">
         <v>15</v>
@@ -32064,7 +32100,7 @@
         <v>15</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB11" s="5" t="s">
         <v>9</v>
@@ -32094,7 +32130,7 @@
         <v>7</v>
       </c>
       <c r="AK11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL11" s="5" t="s">
         <v>15</v>
@@ -32103,25 +32139,25 @@
         <v>7</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU11" s="5" t="s">
         <v>9</v>
@@ -32151,19 +32187,19 @@
         <v>15</v>
       </c>
       <c r="BD11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI11" s="5" t="s">
         <v>9</v>
@@ -32181,7 +32217,7 @@
         <v>15</v>
       </c>
       <c r="BN11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO11" s="5" t="s">
         <v>9</v>
@@ -32235,10 +32271,10 @@
         <v>9</v>
       </c>
       <c r="CF11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH11" s="5" t="s">
         <v>15</v>
@@ -32256,10 +32292,10 @@
         <v>7</v>
       </c>
       <c r="CM11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO11" s="5" t="s">
         <v>15</v>
@@ -32313,19 +32349,19 @@
         <v>7</v>
       </c>
       <c r="DF11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK11" s="5" t="s">
         <v>7</v>
@@ -32340,7 +32376,7 @@
         <v>7</v>
       </c>
       <c r="DO11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP11" s="5" t="s">
         <v>15</v>
@@ -32349,7 +32385,7 @@
         <v>9</v>
       </c>
       <c r="DR11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS11" s="5" t="s">
         <v>15</v>
@@ -32367,7 +32403,7 @@
         <v>15</v>
       </c>
       <c r="DX11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY11" s="5" t="s">
         <v>7</v>
@@ -32382,7 +32418,7 @@
         <v>7</v>
       </c>
       <c r="EC11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED11" s="5" t="s">
         <v>7</v>
@@ -32397,7 +32433,7 @@
         <v>9</v>
       </c>
       <c r="EH11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI11" s="5" t="s">
         <v>7</v>
@@ -32409,7 +32445,7 @@
         <v>9</v>
       </c>
       <c r="EL11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM11" s="5" t="s">
         <v>15</v>
@@ -32421,7 +32457,7 @@
         <v>9</v>
       </c>
       <c r="EP11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ11" s="5" t="s">
         <v>15</v>
@@ -32430,7 +32466,7 @@
         <v>9</v>
       </c>
       <c r="ES11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET11" s="5" t="s">
         <v>7</v>
@@ -32466,7 +32502,7 @@
         <v>15</v>
       </c>
       <c r="FE11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF11" s="5" t="s">
         <v>9</v>
@@ -32478,7 +32514,7 @@
         <v>15</v>
       </c>
       <c r="FI11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ11" s="5" t="s">
         <v>7</v>
@@ -32496,7 +32532,7 @@
         <v>7</v>
       </c>
       <c r="FO11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP11" s="5" t="s">
         <v>7</v>
@@ -32508,7 +32544,7 @@
         <v>15</v>
       </c>
       <c r="FS11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT11" s="5" t="s">
         <v>7</v>
@@ -32517,7 +32553,7 @@
         <v>15</v>
       </c>
       <c r="FV11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW11" s="5" t="s">
         <v>15</v>
@@ -32538,7 +32574,7 @@
         <v>7</v>
       </c>
       <c r="GC11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD11" s="5" t="s">
         <v>15</v>
@@ -32568,7 +32604,7 @@
         <v>7</v>
       </c>
       <c r="GM11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN11" s="5" t="s">
         <v>7</v>
@@ -32577,13 +32613,13 @@
         <v>7</v>
       </c>
       <c r="GP11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS11" s="5" t="s">
         <v>7</v>
@@ -32592,7 +32628,7 @@
         <v>7</v>
       </c>
       <c r="GU11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV11" s="5" t="s">
         <v>15</v>
@@ -32601,7 +32637,7 @@
         <v>7</v>
       </c>
       <c r="GX11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY11" s="5" t="s">
         <v>7</v>
@@ -32637,7 +32673,7 @@
         <v>15</v>
       </c>
       <c r="HJ11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK11" s="5" t="s">
         <v>7</v>
@@ -32646,7 +32682,7 @@
         <v>7</v>
       </c>
       <c r="HM11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN11" s="5" t="s">
         <v>9</v>
@@ -32655,7 +32691,7 @@
         <v>7</v>
       </c>
       <c r="HP11" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HQ11" s="5" t="s">
         <v>9</v>
@@ -32693,7 +32729,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>15</v>
@@ -32717,7 +32753,7 @@
         <v>7</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>9</v>
@@ -32741,13 +32777,13 @@
         <v>15</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X12" s="5" t="s">
         <v>9</v>
@@ -32768,10 +32804,10 @@
         <v>9</v>
       </c>
       <c r="AD12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF12" s="5" t="s">
         <v>15</v>
@@ -32786,7 +32822,7 @@
         <v>7</v>
       </c>
       <c r="AJ12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK12" s="5" t="s">
         <v>7</v>
@@ -32798,25 +32834,25 @@
         <v>7</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU12" s="5" t="s">
         <v>9</v>
@@ -32846,19 +32882,19 @@
         <v>15</v>
       </c>
       <c r="BD12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI12" s="5" t="s">
         <v>9</v>
@@ -32876,7 +32912,7 @@
         <v>15</v>
       </c>
       <c r="BN12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO12" s="5" t="s">
         <v>9</v>
@@ -32930,10 +32966,10 @@
         <v>9</v>
       </c>
       <c r="CF12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH12" s="5" t="s">
         <v>15</v>
@@ -32951,10 +32987,10 @@
         <v>7</v>
       </c>
       <c r="CM12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO12" s="5" t="s">
         <v>15</v>
@@ -33008,19 +33044,19 @@
         <v>7</v>
       </c>
       <c r="DF12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK12" s="5" t="s">
         <v>7</v>
@@ -33035,7 +33071,7 @@
         <v>7</v>
       </c>
       <c r="DO12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP12" s="5" t="s">
         <v>15</v>
@@ -33044,7 +33080,7 @@
         <v>9</v>
       </c>
       <c r="DR12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS12" s="5" t="s">
         <v>15</v>
@@ -33062,7 +33098,7 @@
         <v>15</v>
       </c>
       <c r="DX12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY12" s="5" t="s">
         <v>7</v>
@@ -33077,7 +33113,7 @@
         <v>7</v>
       </c>
       <c r="EC12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED12" s="5" t="s">
         <v>7</v>
@@ -33092,7 +33128,7 @@
         <v>9</v>
       </c>
       <c r="EH12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI12" s="5" t="s">
         <v>7</v>
@@ -33104,7 +33140,7 @@
         <v>9</v>
       </c>
       <c r="EL12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM12" s="5" t="s">
         <v>15</v>
@@ -33116,7 +33152,7 @@
         <v>9</v>
       </c>
       <c r="EP12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ12" s="5" t="s">
         <v>15</v>
@@ -33125,7 +33161,7 @@
         <v>9</v>
       </c>
       <c r="ES12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET12" s="5" t="s">
         <v>7</v>
@@ -33161,7 +33197,7 @@
         <v>15</v>
       </c>
       <c r="FE12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF12" s="5" t="s">
         <v>9</v>
@@ -33173,7 +33209,7 @@
         <v>15</v>
       </c>
       <c r="FI12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ12" s="5" t="s">
         <v>7</v>
@@ -33191,7 +33227,7 @@
         <v>7</v>
       </c>
       <c r="FO12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP12" s="5" t="s">
         <v>7</v>
@@ -33203,7 +33239,7 @@
         <v>15</v>
       </c>
       <c r="FS12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT12" s="5" t="s">
         <v>7</v>
@@ -33212,7 +33248,7 @@
         <v>15</v>
       </c>
       <c r="FV12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW12" s="5" t="s">
         <v>15</v>
@@ -33233,7 +33269,7 @@
         <v>7</v>
       </c>
       <c r="GC12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD12" s="5" t="s">
         <v>15</v>
@@ -33263,7 +33299,7 @@
         <v>7</v>
       </c>
       <c r="GM12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN12" s="5" t="s">
         <v>7</v>
@@ -33278,7 +33314,7 @@
         <v>7</v>
       </c>
       <c r="GR12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS12" s="5" t="s">
         <v>7</v>
@@ -33287,7 +33323,7 @@
         <v>7</v>
       </c>
       <c r="GU12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV12" s="5" t="s">
         <v>15</v>
@@ -33296,7 +33332,7 @@
         <v>7</v>
       </c>
       <c r="GX12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY12" s="5" t="s">
         <v>7</v>
@@ -33332,7 +33368,7 @@
         <v>15</v>
       </c>
       <c r="HJ12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK12" s="5" t="s">
         <v>7</v>
@@ -33341,7 +33377,7 @@
         <v>7</v>
       </c>
       <c r="HM12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN12" s="5" t="s">
         <v>9</v>
@@ -33388,7 +33424,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>15</v>
@@ -33412,7 +33448,7 @@
         <v>7</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>9</v>
@@ -33436,13 +33472,13 @@
         <v>15</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X13" s="5" t="s">
         <v>9</v>
@@ -33460,7 +33496,7 @@
         <v>9</v>
       </c>
       <c r="AC13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD13" s="5" t="s">
         <v>9</v>
@@ -33469,7 +33505,7 @@
         <v>9</v>
       </c>
       <c r="AF13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG13" s="5" t="s">
         <v>15</v>
@@ -33484,7 +33520,7 @@
         <v>7</v>
       </c>
       <c r="AK13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL13" s="5" t="s">
         <v>15</v>
@@ -33493,25 +33529,25 @@
         <v>7</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU13" s="5" t="s">
         <v>9</v>
@@ -33541,19 +33577,19 @@
         <v>15</v>
       </c>
       <c r="BD13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI13" s="5" t="s">
         <v>9</v>
@@ -33571,7 +33607,7 @@
         <v>15</v>
       </c>
       <c r="BN13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO13" s="5" t="s">
         <v>9</v>
@@ -33625,10 +33661,10 @@
         <v>9</v>
       </c>
       <c r="CF13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH13" s="5" t="s">
         <v>15</v>
@@ -33646,10 +33682,10 @@
         <v>7</v>
       </c>
       <c r="CM13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO13" s="5" t="s">
         <v>15</v>
@@ -33703,19 +33739,19 @@
         <v>7</v>
       </c>
       <c r="DF13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK13" s="5" t="s">
         <v>7</v>
@@ -33730,7 +33766,7 @@
         <v>7</v>
       </c>
       <c r="DO13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP13" s="5" t="s">
         <v>15</v>
@@ -33739,7 +33775,7 @@
         <v>9</v>
       </c>
       <c r="DR13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS13" s="5" t="s">
         <v>15</v>
@@ -33757,7 +33793,7 @@
         <v>15</v>
       </c>
       <c r="DX13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY13" s="5" t="s">
         <v>7</v>
@@ -33772,7 +33808,7 @@
         <v>7</v>
       </c>
       <c r="EC13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED13" s="5" t="s">
         <v>7</v>
@@ -33787,7 +33823,7 @@
         <v>9</v>
       </c>
       <c r="EH13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI13" s="5" t="s">
         <v>7</v>
@@ -33799,7 +33835,7 @@
         <v>9</v>
       </c>
       <c r="EL13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM13" s="5" t="s">
         <v>15</v>
@@ -33811,7 +33847,7 @@
         <v>9</v>
       </c>
       <c r="EP13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ13" s="5" t="s">
         <v>15</v>
@@ -33820,7 +33856,7 @@
         <v>9</v>
       </c>
       <c r="ES13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET13" s="5" t="s">
         <v>7</v>
@@ -33856,7 +33892,7 @@
         <v>15</v>
       </c>
       <c r="FE13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF13" s="5" t="s">
         <v>9</v>
@@ -33868,7 +33904,7 @@
         <v>15</v>
       </c>
       <c r="FI13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ13" s="5" t="s">
         <v>7</v>
@@ -33886,7 +33922,7 @@
         <v>7</v>
       </c>
       <c r="FO13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP13" s="5" t="s">
         <v>7</v>
@@ -33898,7 +33934,7 @@
         <v>15</v>
       </c>
       <c r="FS13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT13" s="5" t="s">
         <v>7</v>
@@ -33907,7 +33943,7 @@
         <v>15</v>
       </c>
       <c r="FV13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW13" s="5" t="s">
         <v>15</v>
@@ -33928,7 +33964,7 @@
         <v>7</v>
       </c>
       <c r="GC13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD13" s="5" t="s">
         <v>15</v>
@@ -33958,7 +33994,7 @@
         <v>7</v>
       </c>
       <c r="GM13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN13" s="5" t="s">
         <v>7</v>
@@ -33967,13 +34003,13 @@
         <v>15</v>
       </c>
       <c r="GP13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS13" s="5" t="s">
         <v>7</v>
@@ -33982,7 +34018,7 @@
         <v>7</v>
       </c>
       <c r="GU13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV13" s="5" t="s">
         <v>15</v>
@@ -33991,7 +34027,7 @@
         <v>7</v>
       </c>
       <c r="GX13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY13" s="5" t="s">
         <v>7</v>
@@ -34027,7 +34063,7 @@
         <v>15</v>
       </c>
       <c r="HJ13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK13" s="5" t="s">
         <v>7</v>
@@ -34036,7 +34072,7 @@
         <v>7</v>
       </c>
       <c r="HM13" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN13" s="5" t="s">
         <v>9</v>
@@ -34083,7 +34119,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>15</v>
@@ -34131,13 +34167,13 @@
         <v>15</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X14" s="5" t="s">
         <v>9</v>
@@ -34146,7 +34182,7 @@
         <v>7</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA14" s="5" t="s">
         <v>15</v>
@@ -34155,7 +34191,7 @@
         <v>7</v>
       </c>
       <c r="AC14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD14" s="5" t="s">
         <v>9</v>
@@ -34167,7 +34203,7 @@
         <v>7</v>
       </c>
       <c r="AG14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH14" s="5" t="s">
         <v>9</v>
@@ -34179,7 +34215,7 @@
         <v>15</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>15</v>
@@ -34188,25 +34224,25 @@
         <v>7</v>
       </c>
       <c r="AN14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU14" s="5" t="s">
         <v>9</v>
@@ -34236,19 +34272,19 @@
         <v>15</v>
       </c>
       <c r="BD14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI14" s="5" t="s">
         <v>9</v>
@@ -34266,7 +34302,7 @@
         <v>15</v>
       </c>
       <c r="BN14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO14" s="5" t="s">
         <v>9</v>
@@ -34320,10 +34356,10 @@
         <v>9</v>
       </c>
       <c r="CF14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH14" s="5" t="s">
         <v>15</v>
@@ -34341,10 +34377,10 @@
         <v>7</v>
       </c>
       <c r="CM14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO14" s="5" t="s">
         <v>15</v>
@@ -34398,19 +34434,19 @@
         <v>7</v>
       </c>
       <c r="DF14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK14" s="5" t="s">
         <v>7</v>
@@ -34425,7 +34461,7 @@
         <v>7</v>
       </c>
       <c r="DO14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP14" s="5" t="s">
         <v>15</v>
@@ -34434,7 +34470,7 @@
         <v>9</v>
       </c>
       <c r="DR14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS14" s="5" t="s">
         <v>15</v>
@@ -34452,7 +34488,7 @@
         <v>15</v>
       </c>
       <c r="DX14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY14" s="5" t="s">
         <v>7</v>
@@ -34467,7 +34503,7 @@
         <v>7</v>
       </c>
       <c r="EC14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED14" s="5" t="s">
         <v>7</v>
@@ -34482,7 +34518,7 @@
         <v>9</v>
       </c>
       <c r="EH14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI14" s="5" t="s">
         <v>7</v>
@@ -34494,7 +34530,7 @@
         <v>9</v>
       </c>
       <c r="EL14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM14" s="5" t="s">
         <v>15</v>
@@ -34506,7 +34542,7 @@
         <v>9</v>
       </c>
       <c r="EP14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ14" s="5" t="s">
         <v>15</v>
@@ -34515,7 +34551,7 @@
         <v>9</v>
       </c>
       <c r="ES14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET14" s="5" t="s">
         <v>7</v>
@@ -34551,7 +34587,7 @@
         <v>15</v>
       </c>
       <c r="FE14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF14" s="5" t="s">
         <v>9</v>
@@ -34563,7 +34599,7 @@
         <v>15</v>
       </c>
       <c r="FI14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ14" s="5" t="s">
         <v>7</v>
@@ -34581,7 +34617,7 @@
         <v>7</v>
       </c>
       <c r="FO14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP14" s="5" t="s">
         <v>7</v>
@@ -34593,7 +34629,7 @@
         <v>15</v>
       </c>
       <c r="FS14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT14" s="5" t="s">
         <v>7</v>
@@ -34602,7 +34638,7 @@
         <v>15</v>
       </c>
       <c r="FV14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW14" s="5" t="s">
         <v>15</v>
@@ -34623,7 +34659,7 @@
         <v>7</v>
       </c>
       <c r="GC14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD14" s="5" t="s">
         <v>15</v>
@@ -34653,7 +34689,7 @@
         <v>7</v>
       </c>
       <c r="GM14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN14" s="5" t="s">
         <v>7</v>
@@ -34662,13 +34698,13 @@
         <v>15</v>
       </c>
       <c r="GP14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ14" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS14" s="5" t="s">
         <v>7</v>
@@ -34677,7 +34713,7 @@
         <v>7</v>
       </c>
       <c r="GU14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV14" s="5" t="s">
         <v>15</v>
@@ -34686,7 +34722,7 @@
         <v>7</v>
       </c>
       <c r="GX14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY14" s="5" t="s">
         <v>7</v>
@@ -34722,7 +34758,7 @@
         <v>15</v>
       </c>
       <c r="HJ14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK14" s="5" t="s">
         <v>7</v>
@@ -34731,7 +34767,7 @@
         <v>7</v>
       </c>
       <c r="HM14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN14" s="5" t="s">
         <v>9</v>
@@ -34778,7 +34814,7 @@
         <v>9</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>15</v>
@@ -34799,10 +34835,10 @@
         <v>7</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N15" s="5" t="s">
         <v>9</v>
@@ -34826,10 +34862,10 @@
         <v>15</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W15" s="5" t="s">
         <v>7</v>
@@ -34841,7 +34877,7 @@
         <v>7</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA15" s="5" t="s">
         <v>9</v>
@@ -34850,7 +34886,7 @@
         <v>9</v>
       </c>
       <c r="AC15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD15" s="5" t="s">
         <v>9</v>
@@ -34874,7 +34910,7 @@
         <v>15</v>
       </c>
       <c r="AK15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL15" s="5" t="s">
         <v>15</v>
@@ -34883,25 +34919,25 @@
         <v>7</v>
       </c>
       <c r="AN15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU15" s="5" t="s">
         <v>9</v>
@@ -34931,19 +34967,19 @@
         <v>15</v>
       </c>
       <c r="BD15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI15" s="5" t="s">
         <v>9</v>
@@ -34961,7 +34997,7 @@
         <v>15</v>
       </c>
       <c r="BN15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO15" s="5" t="s">
         <v>9</v>
@@ -35015,10 +35051,10 @@
         <v>9</v>
       </c>
       <c r="CF15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH15" s="5" t="s">
         <v>15</v>
@@ -35036,10 +35072,10 @@
         <v>7</v>
       </c>
       <c r="CM15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO15" s="5" t="s">
         <v>15</v>
@@ -35093,19 +35129,19 @@
         <v>7</v>
       </c>
       <c r="DF15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK15" s="5" t="s">
         <v>7</v>
@@ -35120,7 +35156,7 @@
         <v>7</v>
       </c>
       <c r="DO15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP15" s="5" t="s">
         <v>15</v>
@@ -35129,7 +35165,7 @@
         <v>9</v>
       </c>
       <c r="DR15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS15" s="5" t="s">
         <v>15</v>
@@ -35147,7 +35183,7 @@
         <v>15</v>
       </c>
       <c r="DX15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY15" s="5" t="s">
         <v>7</v>
@@ -35189,7 +35225,7 @@
         <v>9</v>
       </c>
       <c r="EL15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM15" s="5" t="s">
         <v>15</v>
@@ -35201,7 +35237,7 @@
         <v>9</v>
       </c>
       <c r="EP15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ15" s="5" t="s">
         <v>15</v>
@@ -35210,7 +35246,7 @@
         <v>9</v>
       </c>
       <c r="ES15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET15" s="5" t="s">
         <v>7</v>
@@ -35246,7 +35282,7 @@
         <v>15</v>
       </c>
       <c r="FE15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF15" s="5" t="s">
         <v>9</v>
@@ -35258,7 +35294,7 @@
         <v>15</v>
       </c>
       <c r="FI15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ15" s="5" t="s">
         <v>7</v>
@@ -35276,7 +35312,7 @@
         <v>7</v>
       </c>
       <c r="FO15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP15" s="5" t="s">
         <v>7</v>
@@ -35288,7 +35324,7 @@
         <v>15</v>
       </c>
       <c r="FS15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT15" s="5" t="s">
         <v>7</v>
@@ -35297,7 +35333,7 @@
         <v>15</v>
       </c>
       <c r="FV15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW15" s="5" t="s">
         <v>15</v>
@@ -35318,7 +35354,7 @@
         <v>7</v>
       </c>
       <c r="GC15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD15" s="5" t="s">
         <v>9</v>
@@ -35330,7 +35366,7 @@
         <v>15</v>
       </c>
       <c r="GG15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GH15" s="5" t="s">
         <v>9</v>
@@ -35348,7 +35384,7 @@
         <v>7</v>
       </c>
       <c r="GM15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN15" s="5" t="s">
         <v>7</v>
@@ -35357,13 +35393,13 @@
         <v>9</v>
       </c>
       <c r="GP15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GR15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS15" s="5" t="s">
         <v>7</v>
@@ -35381,7 +35417,7 @@
         <v>7</v>
       </c>
       <c r="GX15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY15" s="5" t="s">
         <v>7</v>
@@ -35417,16 +35453,16 @@
         <v>15</v>
       </c>
       <c r="HJ15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HL15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="HM15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN15" s="5" t="s">
         <v>9</v>
@@ -35447,7 +35483,7 @@
         <v>7</v>
       </c>
       <c r="HT15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HU15" s="5" t="s">
         <v>7</v>
@@ -35473,7 +35509,7 @@
         <v>9</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>15</v>
@@ -35521,13 +35557,13 @@
         <v>15</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X16" s="5" t="s">
         <v>15</v>
@@ -35536,10 +35572,10 @@
         <v>7</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB16" s="5" t="s">
         <v>9</v>
@@ -35557,7 +35593,7 @@
         <v>15</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH16" s="5" t="s">
         <v>9</v>
@@ -35569,7 +35605,7 @@
         <v>7</v>
       </c>
       <c r="AK16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL16" s="5" t="s">
         <v>15</v>
@@ -35578,25 +35614,25 @@
         <v>7</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU16" s="5" t="s">
         <v>9</v>
@@ -35626,19 +35662,19 @@
         <v>15</v>
       </c>
       <c r="BD16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI16" s="5" t="s">
         <v>9</v>
@@ -35656,7 +35692,7 @@
         <v>15</v>
       </c>
       <c r="BN16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO16" s="5" t="s">
         <v>9</v>
@@ -35710,10 +35746,10 @@
         <v>9</v>
       </c>
       <c r="CF16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH16" s="5" t="s">
         <v>15</v>
@@ -35731,10 +35767,10 @@
         <v>7</v>
       </c>
       <c r="CM16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO16" s="5" t="s">
         <v>15</v>
@@ -35788,19 +35824,19 @@
         <v>7</v>
       </c>
       <c r="DF16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK16" s="5" t="s">
         <v>7</v>
@@ -35815,7 +35851,7 @@
         <v>7</v>
       </c>
       <c r="DO16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP16" s="5" t="s">
         <v>15</v>
@@ -35824,7 +35860,7 @@
         <v>9</v>
       </c>
       <c r="DR16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS16" s="5" t="s">
         <v>15</v>
@@ -35842,7 +35878,7 @@
         <v>15</v>
       </c>
       <c r="DX16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY16" s="5" t="s">
         <v>7</v>
@@ -35857,7 +35893,7 @@
         <v>7</v>
       </c>
       <c r="EC16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED16" s="5" t="s">
         <v>7</v>
@@ -35872,7 +35908,7 @@
         <v>9</v>
       </c>
       <c r="EH16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI16" s="5" t="s">
         <v>7</v>
@@ -35884,7 +35920,7 @@
         <v>9</v>
       </c>
       <c r="EL16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM16" s="5" t="s">
         <v>15</v>
@@ -35896,7 +35932,7 @@
         <v>9</v>
       </c>
       <c r="EP16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ16" s="5" t="s">
         <v>15</v>
@@ -35905,7 +35941,7 @@
         <v>9</v>
       </c>
       <c r="ES16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET16" s="5" t="s">
         <v>7</v>
@@ -35941,7 +35977,7 @@
         <v>15</v>
       </c>
       <c r="FE16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF16" s="5" t="s">
         <v>9</v>
@@ -35953,7 +35989,7 @@
         <v>15</v>
       </c>
       <c r="FI16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ16" s="5" t="s">
         <v>7</v>
@@ -35971,7 +36007,7 @@
         <v>7</v>
       </c>
       <c r="FO16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP16" s="5" t="s">
         <v>7</v>
@@ -35983,7 +36019,7 @@
         <v>15</v>
       </c>
       <c r="FS16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT16" s="5" t="s">
         <v>7</v>
@@ -35992,7 +36028,7 @@
         <v>15</v>
       </c>
       <c r="FV16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW16" s="5" t="s">
         <v>15</v>
@@ -36013,7 +36049,7 @@
         <v>7</v>
       </c>
       <c r="GC16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD16" s="5" t="s">
         <v>15</v>
@@ -36043,7 +36079,7 @@
         <v>7</v>
       </c>
       <c r="GM16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN16" s="5" t="s">
         <v>7</v>
@@ -36052,13 +36088,13 @@
         <v>15</v>
       </c>
       <c r="GP16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ16" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS16" s="5" t="s">
         <v>7</v>
@@ -36067,7 +36103,7 @@
         <v>7</v>
       </c>
       <c r="GU16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV16" s="5" t="s">
         <v>15</v>
@@ -36076,7 +36112,7 @@
         <v>7</v>
       </c>
       <c r="GX16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY16" s="5" t="s">
         <v>7</v>
@@ -36112,7 +36148,7 @@
         <v>15</v>
       </c>
       <c r="HJ16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK16" s="5" t="s">
         <v>7</v>
@@ -36121,7 +36157,7 @@
         <v>7</v>
       </c>
       <c r="HM16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN16" s="5" t="s">
         <v>9</v>
@@ -36168,7 +36204,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>15</v>
@@ -36186,13 +36222,13 @@
         <v>7</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N17" s="5" t="s">
         <v>9</v>
@@ -36216,13 +36252,13 @@
         <v>15</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X17" s="5" t="s">
         <v>9</v>
@@ -36237,10 +36273,10 @@
         <v>7</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD17" s="5" t="s">
         <v>9</v>
@@ -36264,7 +36300,7 @@
         <v>7</v>
       </c>
       <c r="AK17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL17" s="5" t="s">
         <v>15</v>
@@ -36273,25 +36309,25 @@
         <v>7</v>
       </c>
       <c r="AN17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ17" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AR17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU17" s="5" t="s">
         <v>9</v>
@@ -36321,19 +36357,19 @@
         <v>15</v>
       </c>
       <c r="BD17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI17" s="5" t="s">
         <v>9</v>
@@ -36351,7 +36387,7 @@
         <v>15</v>
       </c>
       <c r="BN17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO17" s="5" t="s">
         <v>9</v>
@@ -36405,10 +36441,10 @@
         <v>9</v>
       </c>
       <c r="CF17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH17" s="5" t="s">
         <v>15</v>
@@ -36426,10 +36462,10 @@
         <v>7</v>
       </c>
       <c r="CM17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO17" s="5" t="s">
         <v>15</v>
@@ -36483,19 +36519,19 @@
         <v>7</v>
       </c>
       <c r="DF17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK17" s="5" t="s">
         <v>7</v>
@@ -36510,7 +36546,7 @@
         <v>7</v>
       </c>
       <c r="DO17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP17" s="5" t="s">
         <v>15</v>
@@ -36519,7 +36555,7 @@
         <v>9</v>
       </c>
       <c r="DR17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS17" s="5" t="s">
         <v>15</v>
@@ -36537,7 +36573,7 @@
         <v>15</v>
       </c>
       <c r="DX17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY17" s="5" t="s">
         <v>7</v>
@@ -36552,7 +36588,7 @@
         <v>7</v>
       </c>
       <c r="EC17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED17" s="5" t="s">
         <v>7</v>
@@ -36567,7 +36603,7 @@
         <v>9</v>
       </c>
       <c r="EH17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI17" s="5" t="s">
         <v>7</v>
@@ -36579,7 +36615,7 @@
         <v>9</v>
       </c>
       <c r="EL17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM17" s="5" t="s">
         <v>15</v>
@@ -36591,7 +36627,7 @@
         <v>9</v>
       </c>
       <c r="EP17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ17" s="5" t="s">
         <v>15</v>
@@ -36600,7 +36636,7 @@
         <v>9</v>
       </c>
       <c r="ES17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET17" s="5" t="s">
         <v>7</v>
@@ -36636,7 +36672,7 @@
         <v>15</v>
       </c>
       <c r="FE17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF17" s="5" t="s">
         <v>9</v>
@@ -36648,7 +36684,7 @@
         <v>15</v>
       </c>
       <c r="FI17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ17" s="5" t="s">
         <v>7</v>
@@ -36666,7 +36702,7 @@
         <v>7</v>
       </c>
       <c r="FO17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP17" s="5" t="s">
         <v>7</v>
@@ -36678,7 +36714,7 @@
         <v>15</v>
       </c>
       <c r="FS17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT17" s="5" t="s">
         <v>7</v>
@@ -36687,7 +36723,7 @@
         <v>15</v>
       </c>
       <c r="FV17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW17" s="5" t="s">
         <v>15</v>
@@ -36708,7 +36744,7 @@
         <v>7</v>
       </c>
       <c r="GC17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD17" s="5" t="s">
         <v>15</v>
@@ -36738,7 +36774,7 @@
         <v>7</v>
       </c>
       <c r="GM17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN17" s="5" t="s">
         <v>7</v>
@@ -36747,13 +36783,13 @@
         <v>15</v>
       </c>
       <c r="GP17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS17" s="5" t="s">
         <v>7</v>
@@ -36762,7 +36798,7 @@
         <v>7</v>
       </c>
       <c r="GU17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV17" s="5" t="s">
         <v>15</v>
@@ -36771,7 +36807,7 @@
         <v>7</v>
       </c>
       <c r="GX17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY17" s="5" t="s">
         <v>7</v>
@@ -36786,10 +36822,10 @@
         <v>7</v>
       </c>
       <c r="HC17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HD17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HE17" s="5" t="s">
         <v>7</v>
@@ -36807,16 +36843,16 @@
         <v>15</v>
       </c>
       <c r="HJ17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK17" s="5" t="s">
         <v>7</v>
       </c>
       <c r="HL17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HM17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN17" s="5" t="s">
         <v>7</v>
@@ -36837,7 +36873,7 @@
         <v>15</v>
       </c>
       <c r="HT17" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HU17" s="5" t="s">
         <v>7</v>
@@ -36863,7 +36899,7 @@
         <v>9</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>15</v>
@@ -36887,7 +36923,7 @@
         <v>9</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>9</v>
@@ -36911,13 +36947,13 @@
         <v>15</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X18" s="5" t="s">
         <v>15</v>
@@ -36929,7 +36965,7 @@
         <v>15</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB18" s="5" t="s">
         <v>9</v>
@@ -36968,25 +37004,25 @@
         <v>7</v>
       </c>
       <c r="AN18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU18" s="5" t="s">
         <v>9</v>
@@ -37016,19 +37052,19 @@
         <v>15</v>
       </c>
       <c r="BD18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI18" s="5" t="s">
         <v>9</v>
@@ -37046,7 +37082,7 @@
         <v>15</v>
       </c>
       <c r="BN18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO18" s="5" t="s">
         <v>9</v>
@@ -37100,10 +37136,10 @@
         <v>9</v>
       </c>
       <c r="CF18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH18" s="5" t="s">
         <v>15</v>
@@ -37121,10 +37157,10 @@
         <v>7</v>
       </c>
       <c r="CM18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO18" s="5" t="s">
         <v>15</v>
@@ -37178,19 +37214,19 @@
         <v>7</v>
       </c>
       <c r="DF18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK18" s="5" t="s">
         <v>7</v>
@@ -37205,7 +37241,7 @@
         <v>7</v>
       </c>
       <c r="DO18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP18" s="5" t="s">
         <v>15</v>
@@ -37214,7 +37250,7 @@
         <v>9</v>
       </c>
       <c r="DR18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS18" s="5" t="s">
         <v>15</v>
@@ -37232,7 +37268,7 @@
         <v>15</v>
       </c>
       <c r="DX18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY18" s="5" t="s">
         <v>7</v>
@@ -37247,7 +37283,7 @@
         <v>7</v>
       </c>
       <c r="EC18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED18" s="5" t="s">
         <v>7</v>
@@ -37262,7 +37298,7 @@
         <v>9</v>
       </c>
       <c r="EH18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI18" s="5" t="s">
         <v>7</v>
@@ -37274,7 +37310,7 @@
         <v>9</v>
       </c>
       <c r="EL18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM18" s="5" t="s">
         <v>15</v>
@@ -37286,7 +37322,7 @@
         <v>9</v>
       </c>
       <c r="EP18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ18" s="5" t="s">
         <v>15</v>
@@ -37295,7 +37331,7 @@
         <v>9</v>
       </c>
       <c r="ES18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET18" s="5" t="s">
         <v>7</v>
@@ -37331,7 +37367,7 @@
         <v>15</v>
       </c>
       <c r="FE18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF18" s="5" t="s">
         <v>9</v>
@@ -37343,7 +37379,7 @@
         <v>15</v>
       </c>
       <c r="FI18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ18" s="5" t="s">
         <v>7</v>
@@ -37361,7 +37397,7 @@
         <v>7</v>
       </c>
       <c r="FO18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP18" s="5" t="s">
         <v>7</v>
@@ -37373,7 +37409,7 @@
         <v>15</v>
       </c>
       <c r="FS18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT18" s="5" t="s">
         <v>7</v>
@@ -37382,7 +37418,7 @@
         <v>15</v>
       </c>
       <c r="FV18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW18" s="5" t="s">
         <v>15</v>
@@ -37403,7 +37439,7 @@
         <v>7</v>
       </c>
       <c r="GC18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD18" s="5" t="s">
         <v>15</v>
@@ -37433,7 +37469,7 @@
         <v>7</v>
       </c>
       <c r="GM18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN18" s="5" t="s">
         <v>7</v>
@@ -37442,13 +37478,13 @@
         <v>15</v>
       </c>
       <c r="GP18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ18" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS18" s="5" t="s">
         <v>7</v>
@@ -37457,7 +37493,7 @@
         <v>7</v>
       </c>
       <c r="GU18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV18" s="5" t="s">
         <v>15</v>
@@ -37466,7 +37502,7 @@
         <v>7</v>
       </c>
       <c r="GX18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY18" s="5" t="s">
         <v>7</v>
@@ -37502,7 +37538,7 @@
         <v>15</v>
       </c>
       <c r="HJ18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK18" s="5" t="s">
         <v>7</v>
@@ -37511,7 +37547,7 @@
         <v>7</v>
       </c>
       <c r="HM18" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN18" s="5" t="s">
         <v>9</v>
@@ -37558,7 +37594,7 @@
         <v>9</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>15</v>
@@ -37582,7 +37618,7 @@
         <v>7</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N19" s="5" t="s">
         <v>9</v>
@@ -37606,13 +37642,13 @@
         <v>15</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X19" s="5" t="s">
         <v>7</v>
@@ -37621,7 +37657,7 @@
         <v>7</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA19" s="5" t="s">
         <v>7</v>
@@ -37642,7 +37678,7 @@
         <v>15</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH19" s="5" t="s">
         <v>9</v>
@@ -37654,7 +37690,7 @@
         <v>7</v>
       </c>
       <c r="AK19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL19" s="5" t="s">
         <v>15</v>
@@ -37663,25 +37699,25 @@
         <v>7</v>
       </c>
       <c r="AN19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU19" s="5" t="s">
         <v>9</v>
@@ -37711,19 +37747,19 @@
         <v>15</v>
       </c>
       <c r="BD19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI19" s="5" t="s">
         <v>9</v>
@@ -37741,7 +37777,7 @@
         <v>15</v>
       </c>
       <c r="BN19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO19" s="5" t="s">
         <v>9</v>
@@ -37795,10 +37831,10 @@
         <v>9</v>
       </c>
       <c r="CF19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH19" s="5" t="s">
         <v>15</v>
@@ -37816,10 +37852,10 @@
         <v>7</v>
       </c>
       <c r="CM19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO19" s="5" t="s">
         <v>15</v>
@@ -37873,19 +37909,19 @@
         <v>7</v>
       </c>
       <c r="DF19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK19" s="5" t="s">
         <v>7</v>
@@ -37900,7 +37936,7 @@
         <v>7</v>
       </c>
       <c r="DO19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP19" s="5" t="s">
         <v>15</v>
@@ -37909,7 +37945,7 @@
         <v>9</v>
       </c>
       <c r="DR19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS19" s="5" t="s">
         <v>15</v>
@@ -37927,7 +37963,7 @@
         <v>15</v>
       </c>
       <c r="DX19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY19" s="5" t="s">
         <v>7</v>
@@ -37942,7 +37978,7 @@
         <v>7</v>
       </c>
       <c r="EC19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED19" s="5" t="s">
         <v>7</v>
@@ -37957,7 +37993,7 @@
         <v>9</v>
       </c>
       <c r="EH19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI19" s="5" t="s">
         <v>7</v>
@@ -37969,7 +38005,7 @@
         <v>9</v>
       </c>
       <c r="EL19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM19" s="5" t="s">
         <v>15</v>
@@ -37981,7 +38017,7 @@
         <v>9</v>
       </c>
       <c r="EP19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ19" s="5" t="s">
         <v>15</v>
@@ -37990,7 +38026,7 @@
         <v>9</v>
       </c>
       <c r="ES19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET19" s="5" t="s">
         <v>7</v>
@@ -38026,7 +38062,7 @@
         <v>15</v>
       </c>
       <c r="FE19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF19" s="5" t="s">
         <v>9</v>
@@ -38038,7 +38074,7 @@
         <v>15</v>
       </c>
       <c r="FI19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ19" s="5" t="s">
         <v>7</v>
@@ -38056,7 +38092,7 @@
         <v>7</v>
       </c>
       <c r="FO19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP19" s="5" t="s">
         <v>7</v>
@@ -38068,7 +38104,7 @@
         <v>15</v>
       </c>
       <c r="FS19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT19" s="5" t="s">
         <v>7</v>
@@ -38077,7 +38113,7 @@
         <v>15</v>
       </c>
       <c r="FV19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW19" s="5" t="s">
         <v>15</v>
@@ -38098,7 +38134,7 @@
         <v>7</v>
       </c>
       <c r="GC19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD19" s="5" t="s">
         <v>15</v>
@@ -38107,7 +38143,7 @@
         <v>15</v>
       </c>
       <c r="GF19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GG19" s="5" t="s">
         <v>15</v>
@@ -38128,7 +38164,7 @@
         <v>7</v>
       </c>
       <c r="GM19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN19" s="5" t="s">
         <v>7</v>
@@ -38137,13 +38173,13 @@
         <v>15</v>
       </c>
       <c r="GP19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ19" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS19" s="5" t="s">
         <v>7</v>
@@ -38152,16 +38188,16 @@
         <v>7</v>
       </c>
       <c r="GU19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="GW19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GX19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY19" s="5" t="s">
         <v>7</v>
@@ -38197,7 +38233,7 @@
         <v>15</v>
       </c>
       <c r="HJ19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK19" s="5" t="s">
         <v>7</v>
@@ -38218,7 +38254,7 @@
         <v>9</v>
       </c>
       <c r="HQ19" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HR19" s="5" t="s">
         <v>15</v>
@@ -38253,7 +38289,7 @@
         <v>9</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>15</v>
@@ -38271,7 +38307,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L20" s="5" t="s">
         <v>7</v>
@@ -38301,13 +38337,13 @@
         <v>15</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X20" s="5" t="s">
         <v>15</v>
@@ -38319,7 +38355,7 @@
         <v>15</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>9</v>
@@ -38328,7 +38364,7 @@
         <v>7</v>
       </c>
       <c r="AD20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE20" s="5" t="s">
         <v>15</v>
@@ -38346,10 +38382,10 @@
         <v>15</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL20" s="5" t="s">
         <v>15</v>
@@ -38358,25 +38394,25 @@
         <v>7</v>
       </c>
       <c r="AN20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU20" s="5" t="s">
         <v>9</v>
@@ -38406,19 +38442,19 @@
         <v>15</v>
       </c>
       <c r="BD20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI20" s="5" t="s">
         <v>9</v>
@@ -38436,7 +38472,7 @@
         <v>15</v>
       </c>
       <c r="BN20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO20" s="5" t="s">
         <v>9</v>
@@ -38490,10 +38526,10 @@
         <v>9</v>
       </c>
       <c r="CF20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH20" s="5" t="s">
         <v>15</v>
@@ -38511,10 +38547,10 @@
         <v>7</v>
       </c>
       <c r="CM20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO20" s="5" t="s">
         <v>15</v>
@@ -38568,19 +38604,19 @@
         <v>7</v>
       </c>
       <c r="DF20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK20" s="5" t="s">
         <v>7</v>
@@ -38595,7 +38631,7 @@
         <v>7</v>
       </c>
       <c r="DO20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP20" s="5" t="s">
         <v>15</v>
@@ -38604,7 +38640,7 @@
         <v>9</v>
       </c>
       <c r="DR20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS20" s="5" t="s">
         <v>15</v>
@@ -38622,7 +38658,7 @@
         <v>15</v>
       </c>
       <c r="DX20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY20" s="5" t="s">
         <v>7</v>
@@ -38637,7 +38673,7 @@
         <v>7</v>
       </c>
       <c r="EC20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED20" s="5" t="s">
         <v>7</v>
@@ -38652,7 +38688,7 @@
         <v>9</v>
       </c>
       <c r="EH20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI20" s="5" t="s">
         <v>7</v>
@@ -38664,7 +38700,7 @@
         <v>9</v>
       </c>
       <c r="EL20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM20" s="5" t="s">
         <v>15</v>
@@ -38676,7 +38712,7 @@
         <v>9</v>
       </c>
       <c r="EP20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ20" s="5" t="s">
         <v>15</v>
@@ -38685,7 +38721,7 @@
         <v>9</v>
       </c>
       <c r="ES20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET20" s="5" t="s">
         <v>7</v>
@@ -38721,7 +38757,7 @@
         <v>15</v>
       </c>
       <c r="FE20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF20" s="5" t="s">
         <v>9</v>
@@ -38733,7 +38769,7 @@
         <v>15</v>
       </c>
       <c r="FI20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ20" s="5" t="s">
         <v>7</v>
@@ -38751,7 +38787,7 @@
         <v>7</v>
       </c>
       <c r="FO20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP20" s="5" t="s">
         <v>7</v>
@@ -38763,7 +38799,7 @@
         <v>15</v>
       </c>
       <c r="FS20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT20" s="5" t="s">
         <v>7</v>
@@ -38772,7 +38808,7 @@
         <v>15</v>
       </c>
       <c r="FV20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW20" s="5" t="s">
         <v>15</v>
@@ -38793,7 +38829,7 @@
         <v>7</v>
       </c>
       <c r="GC20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD20" s="5" t="s">
         <v>15</v>
@@ -38823,7 +38859,7 @@
         <v>7</v>
       </c>
       <c r="GM20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN20" s="5" t="s">
         <v>7</v>
@@ -38832,13 +38868,13 @@
         <v>15</v>
       </c>
       <c r="GP20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS20" s="5" t="s">
         <v>7</v>
@@ -38847,7 +38883,7 @@
         <v>7</v>
       </c>
       <c r="GU20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV20" s="5" t="s">
         <v>15</v>
@@ -38856,7 +38892,7 @@
         <v>7</v>
       </c>
       <c r="GX20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY20" s="5" t="s">
         <v>7</v>
@@ -38892,7 +38928,7 @@
         <v>15</v>
       </c>
       <c r="HJ20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK20" s="5" t="s">
         <v>7</v>
@@ -38901,16 +38937,16 @@
         <v>7</v>
       </c>
       <c r="HM20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HO20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="HP20" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HQ20" s="5" t="s">
         <v>7</v>
@@ -38948,7 +38984,7 @@
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>15</v>
@@ -38972,7 +39008,7 @@
         <v>7</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N21" s="5" t="s">
         <v>9</v>
@@ -38996,13 +39032,13 @@
         <v>15</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X21" s="5" t="s">
         <v>15</v>
@@ -39011,16 +39047,16 @@
         <v>7</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB21" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AC21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD21" s="5" t="s">
         <v>9</v>
@@ -39032,7 +39068,7 @@
         <v>15</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH21" s="5" t="s">
         <v>9</v>
@@ -39041,10 +39077,10 @@
         <v>15</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL21" s="5" t="s">
         <v>15</v>
@@ -39053,25 +39089,25 @@
         <v>7</v>
       </c>
       <c r="AN21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU21" s="5" t="s">
         <v>9</v>
@@ -39101,19 +39137,19 @@
         <v>15</v>
       </c>
       <c r="BD21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI21" s="5" t="s">
         <v>9</v>
@@ -39131,7 +39167,7 @@
         <v>15</v>
       </c>
       <c r="BN21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO21" s="5" t="s">
         <v>9</v>
@@ -39185,10 +39221,10 @@
         <v>9</v>
       </c>
       <c r="CF21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH21" s="5" t="s">
         <v>15</v>
@@ -39206,10 +39242,10 @@
         <v>7</v>
       </c>
       <c r="CM21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO21" s="5" t="s">
         <v>15</v>
@@ -39263,19 +39299,19 @@
         <v>7</v>
       </c>
       <c r="DF21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK21" s="5" t="s">
         <v>7</v>
@@ -39290,7 +39326,7 @@
         <v>7</v>
       </c>
       <c r="DO21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP21" s="5" t="s">
         <v>15</v>
@@ -39299,7 +39335,7 @@
         <v>9</v>
       </c>
       <c r="DR21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS21" s="5" t="s">
         <v>15</v>
@@ -39317,7 +39353,7 @@
         <v>15</v>
       </c>
       <c r="DX21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY21" s="5" t="s">
         <v>7</v>
@@ -39332,7 +39368,7 @@
         <v>7</v>
       </c>
       <c r="EC21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED21" s="5" t="s">
         <v>7</v>
@@ -39347,7 +39383,7 @@
         <v>9</v>
       </c>
       <c r="EH21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI21" s="5" t="s">
         <v>7</v>
@@ -39359,7 +39395,7 @@
         <v>9</v>
       </c>
       <c r="EL21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM21" s="5" t="s">
         <v>15</v>
@@ -39371,7 +39407,7 @@
         <v>9</v>
       </c>
       <c r="EP21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ21" s="5" t="s">
         <v>15</v>
@@ -39380,7 +39416,7 @@
         <v>9</v>
       </c>
       <c r="ES21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET21" s="5" t="s">
         <v>7</v>
@@ -39416,7 +39452,7 @@
         <v>15</v>
       </c>
       <c r="FE21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF21" s="5" t="s">
         <v>9</v>
@@ -39428,7 +39464,7 @@
         <v>15</v>
       </c>
       <c r="FI21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ21" s="5" t="s">
         <v>7</v>
@@ -39446,7 +39482,7 @@
         <v>7</v>
       </c>
       <c r="FO21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP21" s="5" t="s">
         <v>7</v>
@@ -39458,7 +39494,7 @@
         <v>15</v>
       </c>
       <c r="FS21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT21" s="5" t="s">
         <v>7</v>
@@ -39467,7 +39503,7 @@
         <v>15</v>
       </c>
       <c r="FV21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW21" s="5" t="s">
         <v>15</v>
@@ -39488,7 +39524,7 @@
         <v>7</v>
       </c>
       <c r="GC21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD21" s="5" t="s">
         <v>15</v>
@@ -39518,7 +39554,7 @@
         <v>7</v>
       </c>
       <c r="GM21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN21" s="5" t="s">
         <v>7</v>
@@ -39527,13 +39563,13 @@
         <v>15</v>
       </c>
       <c r="GP21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS21" s="5" t="s">
         <v>7</v>
@@ -39542,7 +39578,7 @@
         <v>7</v>
       </c>
       <c r="GU21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV21" s="5" t="s">
         <v>15</v>
@@ -39551,7 +39587,7 @@
         <v>7</v>
       </c>
       <c r="GX21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY21" s="5" t="s">
         <v>7</v>
@@ -39587,7 +39623,7 @@
         <v>15</v>
       </c>
       <c r="HJ21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK21" s="5" t="s">
         <v>7</v>
@@ -39596,7 +39632,7 @@
         <v>7</v>
       </c>
       <c r="HM21" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN21" s="5" t="s">
         <v>9</v>
@@ -39643,7 +39679,7 @@
         <v>9</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>15</v>
@@ -39691,13 +39727,13 @@
         <v>15</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X22" s="5" t="s">
         <v>7</v>
@@ -39709,7 +39745,7 @@
         <v>15</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>9</v>
@@ -39736,10 +39772,10 @@
         <v>15</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL22" s="5" t="s">
         <v>15</v>
@@ -39748,25 +39784,25 @@
         <v>7</v>
       </c>
       <c r="AN22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AR22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU22" s="5" t="s">
         <v>9</v>
@@ -39796,19 +39832,19 @@
         <v>15</v>
       </c>
       <c r="BD22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI22" s="5" t="s">
         <v>9</v>
@@ -39826,7 +39862,7 @@
         <v>15</v>
       </c>
       <c r="BN22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO22" s="5" t="s">
         <v>9</v>
@@ -39880,10 +39916,10 @@
         <v>9</v>
       </c>
       <c r="CF22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH22" s="5" t="s">
         <v>15</v>
@@ -39901,10 +39937,10 @@
         <v>7</v>
       </c>
       <c r="CM22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO22" s="5" t="s">
         <v>15</v>
@@ -39958,19 +39994,19 @@
         <v>7</v>
       </c>
       <c r="DF22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK22" s="5" t="s">
         <v>7</v>
@@ -39985,7 +40021,7 @@
         <v>7</v>
       </c>
       <c r="DO22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP22" s="5" t="s">
         <v>15</v>
@@ -39994,7 +40030,7 @@
         <v>9</v>
       </c>
       <c r="DR22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS22" s="5" t="s">
         <v>15</v>
@@ -40012,7 +40048,7 @@
         <v>15</v>
       </c>
       <c r="DX22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY22" s="5" t="s">
         <v>7</v>
@@ -40027,7 +40063,7 @@
         <v>7</v>
       </c>
       <c r="EC22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED22" s="5" t="s">
         <v>7</v>
@@ -40042,10 +40078,10 @@
         <v>9</v>
       </c>
       <c r="EH22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EJ22" s="5" t="s">
         <v>7</v>
@@ -40054,7 +40090,7 @@
         <v>7</v>
       </c>
       <c r="EL22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM22" s="5" t="s">
         <v>15</v>
@@ -40063,10 +40099,10 @@
         <v>15</v>
       </c>
       <c r="EO22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EP22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ22" s="5" t="s">
         <v>15</v>
@@ -40075,7 +40111,7 @@
         <v>9</v>
       </c>
       <c r="ES22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET22" s="5" t="s">
         <v>7</v>
@@ -40111,7 +40147,7 @@
         <v>15</v>
       </c>
       <c r="FE22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF22" s="5" t="s">
         <v>9</v>
@@ -40123,7 +40159,7 @@
         <v>15</v>
       </c>
       <c r="FI22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ22" s="5" t="s">
         <v>7</v>
@@ -40141,7 +40177,7 @@
         <v>7</v>
       </c>
       <c r="FO22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP22" s="5" t="s">
         <v>7</v>
@@ -40153,7 +40189,7 @@
         <v>15</v>
       </c>
       <c r="FS22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT22" s="5" t="s">
         <v>7</v>
@@ -40162,7 +40198,7 @@
         <v>15</v>
       </c>
       <c r="FV22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW22" s="5" t="s">
         <v>15</v>
@@ -40183,13 +40219,13 @@
         <v>7</v>
       </c>
       <c r="GC22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="GE22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GF22" s="5" t="s">
         <v>15</v>
@@ -40213,7 +40249,7 @@
         <v>7</v>
       </c>
       <c r="GM22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN22" s="5" t="s">
         <v>7</v>
@@ -40222,13 +40258,13 @@
         <v>15</v>
       </c>
       <c r="GP22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS22" s="5" t="s">
         <v>7</v>
@@ -40237,7 +40273,7 @@
         <v>7</v>
       </c>
       <c r="GU22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV22" s="5" t="s">
         <v>15</v>
@@ -40246,7 +40282,7 @@
         <v>7</v>
       </c>
       <c r="GX22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY22" s="5" t="s">
         <v>7</v>
@@ -40264,7 +40300,7 @@
         <v>15</v>
       </c>
       <c r="HD22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HE22" s="5" t="s">
         <v>7</v>
@@ -40282,7 +40318,7 @@
         <v>15</v>
       </c>
       <c r="HJ22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK22" s="5" t="s">
         <v>7</v>
@@ -40291,7 +40327,7 @@
         <v>9</v>
       </c>
       <c r="HM22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN22" s="5" t="s">
         <v>9</v>
@@ -40309,7 +40345,7 @@
         <v>7</v>
       </c>
       <c r="HS22" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HT22" s="5" t="s">
         <v>7</v>
@@ -40338,7 +40374,7 @@
         <v>9</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>15</v>
@@ -40362,7 +40398,7 @@
         <v>7</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>9</v>
@@ -40386,13 +40422,13 @@
         <v>15</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X23" s="5" t="s">
         <v>9</v>
@@ -40413,10 +40449,10 @@
         <v>9</v>
       </c>
       <c r="AD23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF23" s="5" t="s">
         <v>15</v>
@@ -40431,7 +40467,7 @@
         <v>7</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AK23" s="5" t="s">
         <v>7</v>
@@ -40443,25 +40479,25 @@
         <v>7</v>
       </c>
       <c r="AN23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AR23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU23" s="5" t="s">
         <v>9</v>
@@ -40491,19 +40527,19 @@
         <v>15</v>
       </c>
       <c r="BD23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI23" s="5" t="s">
         <v>9</v>
@@ -40521,7 +40557,7 @@
         <v>15</v>
       </c>
       <c r="BN23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO23" s="5" t="s">
         <v>9</v>
@@ -40575,10 +40611,10 @@
         <v>9</v>
       </c>
       <c r="CF23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH23" s="5" t="s">
         <v>15</v>
@@ -40596,10 +40632,10 @@
         <v>7</v>
       </c>
       <c r="CM23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO23" s="5" t="s">
         <v>15</v>
@@ -40653,19 +40689,19 @@
         <v>7</v>
       </c>
       <c r="DF23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK23" s="5" t="s">
         <v>7</v>
@@ -40680,7 +40716,7 @@
         <v>7</v>
       </c>
       <c r="DO23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP23" s="5" t="s">
         <v>15</v>
@@ -40689,7 +40725,7 @@
         <v>9</v>
       </c>
       <c r="DR23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS23" s="5" t="s">
         <v>15</v>
@@ -40707,7 +40743,7 @@
         <v>15</v>
       </c>
       <c r="DX23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY23" s="5" t="s">
         <v>7</v>
@@ -40722,7 +40758,7 @@
         <v>7</v>
       </c>
       <c r="EC23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED23" s="5" t="s">
         <v>7</v>
@@ -40737,7 +40773,7 @@
         <v>9</v>
       </c>
       <c r="EH23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI23" s="5" t="s">
         <v>7</v>
@@ -40749,7 +40785,7 @@
         <v>9</v>
       </c>
       <c r="EL23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM23" s="5" t="s">
         <v>15</v>
@@ -40761,7 +40797,7 @@
         <v>9</v>
       </c>
       <c r="EP23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ23" s="5" t="s">
         <v>15</v>
@@ -40770,7 +40806,7 @@
         <v>9</v>
       </c>
       <c r="ES23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET23" s="5" t="s">
         <v>7</v>
@@ -40806,7 +40842,7 @@
         <v>15</v>
       </c>
       <c r="FE23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF23" s="5" t="s">
         <v>9</v>
@@ -40818,7 +40854,7 @@
         <v>15</v>
       </c>
       <c r="FI23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ23" s="5" t="s">
         <v>7</v>
@@ -40836,7 +40872,7 @@
         <v>7</v>
       </c>
       <c r="FO23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP23" s="5" t="s">
         <v>7</v>
@@ -40848,7 +40884,7 @@
         <v>15</v>
       </c>
       <c r="FS23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT23" s="5" t="s">
         <v>7</v>
@@ -40857,7 +40893,7 @@
         <v>15</v>
       </c>
       <c r="FV23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW23" s="5" t="s">
         <v>15</v>
@@ -40878,7 +40914,7 @@
         <v>7</v>
       </c>
       <c r="GC23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD23" s="5" t="s">
         <v>15</v>
@@ -40908,7 +40944,7 @@
         <v>7</v>
       </c>
       <c r="GM23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN23" s="5" t="s">
         <v>7</v>
@@ -40923,7 +40959,7 @@
         <v>7</v>
       </c>
       <c r="GR23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS23" s="5" t="s">
         <v>7</v>
@@ -40932,7 +40968,7 @@
         <v>7</v>
       </c>
       <c r="GU23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV23" s="5" t="s">
         <v>15</v>
@@ -40941,7 +40977,7 @@
         <v>7</v>
       </c>
       <c r="GX23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY23" s="5" t="s">
         <v>7</v>
@@ -40977,7 +41013,7 @@
         <v>15</v>
       </c>
       <c r="HJ23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK23" s="5" t="s">
         <v>7</v>
@@ -40986,7 +41022,7 @@
         <v>7</v>
       </c>
       <c r="HM23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN23" s="5" t="s">
         <v>9</v>
@@ -41033,7 +41069,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>15</v>
@@ -41081,13 +41117,13 @@
         <v>15</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X24" s="5" t="s">
         <v>15</v>
@@ -41099,7 +41135,7 @@
         <v>15</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB24" s="5" t="s">
         <v>7</v>
@@ -41123,13 +41159,13 @@
         <v>9</v>
       </c>
       <c r="AI24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AJ24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AK24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AL24" s="5" t="s">
         <v>15</v>
@@ -41138,25 +41174,25 @@
         <v>7</v>
       </c>
       <c r="AN24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AO24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="AP24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AQ24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AR24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AS24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AT24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AU24" s="5" t="s">
         <v>9</v>
@@ -41186,19 +41222,19 @@
         <v>15</v>
       </c>
       <c r="BD24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BE24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BF24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BG24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="BH24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BI24" s="5" t="s">
         <v>9</v>
@@ -41216,7 +41252,7 @@
         <v>15</v>
       </c>
       <c r="BN24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="BO24" s="5" t="s">
         <v>9</v>
@@ -41270,10 +41306,10 @@
         <v>9</v>
       </c>
       <c r="CF24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CG24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CH24" s="5" t="s">
         <v>15</v>
@@ -41291,10 +41327,10 @@
         <v>7</v>
       </c>
       <c r="CM24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CN24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="CO24" s="5" t="s">
         <v>15</v>
@@ -41348,19 +41384,19 @@
         <v>7</v>
       </c>
       <c r="DF24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DG24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DH24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="DI24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DJ24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DK24" s="5" t="s">
         <v>7</v>
@@ -41375,7 +41411,7 @@
         <v>7</v>
       </c>
       <c r="DO24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DP24" s="5" t="s">
         <v>15</v>
@@ -41384,7 +41420,7 @@
         <v>9</v>
       </c>
       <c r="DR24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DS24" s="5" t="s">
         <v>15</v>
@@ -41402,7 +41438,7 @@
         <v>15</v>
       </c>
       <c r="DX24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="DY24" s="5" t="s">
         <v>7</v>
@@ -41417,7 +41453,7 @@
         <v>7</v>
       </c>
       <c r="EC24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ED24" s="5" t="s">
         <v>7</v>
@@ -41432,7 +41468,7 @@
         <v>9</v>
       </c>
       <c r="EH24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EI24" s="5" t="s">
         <v>7</v>
@@ -41444,7 +41480,7 @@
         <v>9</v>
       </c>
       <c r="EL24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EM24" s="5" t="s">
         <v>15</v>
@@ -41456,7 +41492,7 @@
         <v>9</v>
       </c>
       <c r="EP24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="EQ24" s="5" t="s">
         <v>15</v>
@@ -41465,7 +41501,7 @@
         <v>9</v>
       </c>
       <c r="ES24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="ET24" s="5" t="s">
         <v>7</v>
@@ -41501,7 +41537,7 @@
         <v>15</v>
       </c>
       <c r="FE24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FF24" s="5" t="s">
         <v>9</v>
@@ -41513,7 +41549,7 @@
         <v>15</v>
       </c>
       <c r="FI24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FJ24" s="5" t="s">
         <v>7</v>
@@ -41531,7 +41567,7 @@
         <v>7</v>
       </c>
       <c r="FO24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FP24" s="5" t="s">
         <v>7</v>
@@ -41543,7 +41579,7 @@
         <v>15</v>
       </c>
       <c r="FS24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FT24" s="5" t="s">
         <v>7</v>
@@ -41552,7 +41588,7 @@
         <v>15</v>
       </c>
       <c r="FV24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="FW24" s="5" t="s">
         <v>15</v>
@@ -41573,7 +41609,7 @@
         <v>7</v>
       </c>
       <c r="GC24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GD24" s="5" t="s">
         <v>15</v>
@@ -41603,7 +41639,7 @@
         <v>7</v>
       </c>
       <c r="GM24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GN24" s="5" t="s">
         <v>7</v>
@@ -41612,13 +41648,13 @@
         <v>15</v>
       </c>
       <c r="GP24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GQ24" s="5" t="s">
         <v>7</v>
       </c>
       <c r="GR24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GS24" s="5" t="s">
         <v>7</v>
@@ -41627,7 +41663,7 @@
         <v>7</v>
       </c>
       <c r="GU24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GV24" s="5" t="s">
         <v>15</v>
@@ -41636,7 +41672,7 @@
         <v>7</v>
       </c>
       <c r="GX24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="GY24" s="5" t="s">
         <v>7</v>
@@ -41672,7 +41708,7 @@
         <v>15</v>
       </c>
       <c r="HJ24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HK24" s="5" t="s">
         <v>7</v>
@@ -41681,7 +41717,7 @@
         <v>7</v>
       </c>
       <c r="HM24" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="HN24" s="5" t="s">
         <v>9</v>
@@ -41712,6 +41748,16 @@
       </c>
       <c r="HW24" s="7" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:231">
+      <c r="B26" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:231">
+      <c r="B27" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
